--- a/pred_ohlcv/54_21/2020-01-24 FNB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 FNB ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-4999957.376500001</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-4999957.376500001</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-4946652.189100001</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-4925401.966500001</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-4928401.966500001</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-4572138.256900001</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-4688906.121300002</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-5152825.392300001</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-29762006.47852162</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-46243514.64412162</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-45075095.23502161</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-47309703.12352161</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-47309703.12352161</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-47308575.99822161</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-47272219.34762161</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-47272219.34762161</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-47401856.78642161</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-47398987.85782161</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-47395355.63332161</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-47452763.32652161</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-47063615.79262161</v>
       </c>
       <c r="H377">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-47063615.79262161</v>
       </c>
       <c r="H378">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-47063615.79262161</v>
       </c>
       <c r="H379">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-47062949.79262161</v>
       </c>
       <c r="H380">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-47062949.79262161</v>
       </c>
       <c r="H381">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-47069399.03052161</v>
       </c>
       <c r="H384">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-44538302.70065446</v>
       </c>
       <c r="H385">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-37232364.55142161</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-37321749.77517863</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-37318706.41507863</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-37318706.41507863</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-24 FNB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 FNB ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-4999957.376500001</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-4999957.376500001</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-4925401.966500001</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-4572138.256900001</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-4688906.121300002</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-5152825.392300001</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-21854586.50152162</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-24143410.04782162</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-24143170.04782162</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-23774943.37492162</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-23775187.37492162</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-23855187.37492162</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-23384470.86422162</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-22608981.92622162</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-22608981.92622162</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-22609221.92622162</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-22609665.92622162</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-22609909.92622162</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-22609909.92622162</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-22610593.92622162</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-22610353.92622162</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-21721271.83842162</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-21722571.83842162</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-21722571.83842162</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-21722571.83842162</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-21872571.83842162</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-29762006.47852162</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-31713832.42342162</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-46243514.64412162</v>
       </c>
       <c r="H360">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-45075095.23502161</v>
       </c>
       <c r="H361">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-47309703.12352161</v>
       </c>
       <c r="H363">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-47309703.12352161</v>
       </c>
       <c r="H364">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-47308575.99822161</v>
       </c>
       <c r="H365">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-47272219.34762161</v>
       </c>
       <c r="H366">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-47272219.34762161</v>
       </c>
       <c r="H367">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-47401856.78642161</v>
       </c>
       <c r="H368">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-47398987.85782161</v>
       </c>
       <c r="H369">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-47395355.63332161</v>
       </c>
       <c r="H370">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-47452763.32652161</v>
       </c>
       <c r="H371">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-47087695.93062161</v>
       </c>
       <c r="H373">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-47091142.11862161</v>
       </c>
       <c r="H374">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-47063615.79262161</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-47063615.79262161</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-47063615.79262161</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-47062949.79262161</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-47062949.79262161</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-47069399.03052161</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-47069399.03052161</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-44538302.70065446</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-37232364.55142161</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-37321749.77517863</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-37318706.41507863</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-37318706.41507863</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
